--- a/dist/document/dest/2020/10/doctors/33.xlsx
+++ b/dist/document/dest/2020/10/doctors/33.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>21</v>
       </c>
-      <c r="C2" s="1">
-        <v>52290</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>4980</v>
       </c>
-      <c r="C3" s="1">
-        <v>17181000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>2224</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>434</v>
       </c>
-      <c r="C5" s="1">
-        <v>2816660</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>88</v>
       </c>
-      <c r="C6" s="1">
-        <v>1206920</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>60</v>
       </c>
-      <c r="C7" s="1">
-        <v>196500</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>60</v>
       </c>
-      <c r="C8" s="1">
-        <v>1104000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>299</v>
       </c>
-      <c r="C9" s="1">
-        <v>2960100</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>15</v>
       </c>
-      <c r="C10" s="1">
-        <v>63825</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>7440</v>
       </c>
-      <c r="C11" s="1">
-        <v>73656000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>2373</v>
       </c>
-      <c r="C12" s="1">
-        <v>15531285</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>124</v>
       </c>
-      <c r="C13" s="1">
-        <v>135160</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>267</v>
       </c>
-      <c r="C14" s="1">
-        <v>1762200</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>297</v>
       </c>
-      <c r="C15" s="1">
-        <v>3528360</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>1584</v>
       </c>
-      <c r="C16" s="1">
-        <v>25264800</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>372</v>
       </c>
-      <c r="C17" s="1">
-        <v>76260</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="1">
-        <v>61350</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>6771</v>
       </c>
-      <c r="C19" s="1">
-        <v>18687960</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>3350</v>
       </c>
-      <c r="C20" s="1">
-        <v>11942750</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>15</v>
       </c>
-      <c r="C21" s="1">
-        <v>39675</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>70</v>
       </c>
-      <c r="C22" s="1">
-        <v>1131900</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>30</v>
       </c>
-      <c r="C23" s="1">
-        <v>38100</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>404</v>
       </c>
-      <c r="C24" s="1">
-        <v>2666400</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>975</v>
       </c>
-      <c r="C25" s="1">
-        <v>3924375</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>518</v>
       </c>
-      <c r="C26" s="1">
-        <v>1901060</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>8787</v>
       </c>
-      <c r="C27" s="1">
-        <v>95690430</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>22</v>
       </c>
-      <c r="C28" s="1">
-        <v>1815000</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>570</v>
       </c>
-      <c r="C29" s="1">
-        <v>1900950</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>1643</v>
       </c>
-      <c r="C30" s="1">
-        <v>24398550</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>7728</v>
       </c>
-      <c r="C31" s="1">
-        <v>67774560</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>4540</v>
       </c>
-      <c r="C32" s="1">
-        <v>22972400</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>160</v>
       </c>
-      <c r="C33" s="1">
-        <v>634400</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>1239</v>
       </c>
-      <c r="C34" s="1">
-        <v>3847095</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>594</v>
       </c>
-      <c r="C35" s="1">
-        <v>2459160</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>60</v>
       </c>
-      <c r="C36" s="1">
-        <v>528000</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>6</v>
       </c>
-      <c r="C37" s="1">
-        <v>417000</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -801,7 +693,7 @@
         <v>55919</v>
       </c>
       <c r="C38" s="1">
-        <v>408368699</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/33.xlsx
+++ b/dist/document/dest/2020/10/doctors/33.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,10 @@
         <v>Alpha Choay (VN)</v>
       </c>
       <c r="B2" s="1">
-        <v>21</v>
+        <v>56</v>
+      </c>
+      <c r="C2" s="1">
+        <v>139440</v>
       </c>
     </row>
     <row r="3">
@@ -410,295 +413,2039 @@
         <v>Amemoin (Methocarbamol 500mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>4980</v>
+        <v>2868</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9894600</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Amitriptyline (Elavil 25)</v>
+        <v>Amemoin (Methocarbamol 500mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>8</v>
+        <v>315</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1086750</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Amursolic (Ursodeoxycholic 150mg)</v>
+        <v>Amemoin (Methocarbamol 500mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>434</v>
+        <v>348</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1200600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Artrodar (Diacerein)</v>
+        <v>Amemoin (Methocarbamol 500mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>88</v>
+        <v>336</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1159200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Be-Stedy 16 (Betahistine 16mg)</v>
+        <v>Amemoin (Methocarbamol 500mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>60</v>
+        <v>807</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2784150</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+        <v>Amemoin (Methocarbamol 500mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>60</v>
+        <v>630</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2173500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Cefass (Etoricoxib 90mg)</v>
+        <v>Amemoin (Methocarbamol 500mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>299</v>
+        <v>773</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2666850</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Chondrasil (Allopurinol 300mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>15</v>
+        <v>390</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2531100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Coxwell (Etoricoxib 90mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>7440</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>194700</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Diosfort (Diosmin 600mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>2373</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>194700</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Dochicin (Colchicine 1mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>124</v>
+        <v>30</v>
+      </c>
+      <c r="C13" s="1">
+        <v>194700</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>E-Cox (Etoricoxib 60mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>267</v>
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>194700</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Esotrax (Esomeprazole 20mg)</v>
+        <v>Artrodar (Diacerein)</v>
       </c>
       <c r="B15" s="1">
-        <v>297</v>
+        <v>180</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2468700</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>Artrodar (Diacerein)</v>
       </c>
       <c r="B16" s="1">
-        <v>1584</v>
+        <v>59</v>
+      </c>
+      <c r="C16" s="1">
+        <v>809185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Folacid (Acid Folic 5mg)</v>
+        <v>Artrodar (Diacerein)</v>
       </c>
       <c r="B17" s="1">
-        <v>372</v>
+        <v>90</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1234350</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Glucophage 850mg (Metformin)</v>
+        <v>Artrodar (Diacerein)</v>
       </c>
       <c r="B18" s="1">
-        <v>15</v>
+        <v>135</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1851525</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Hancetax (Mecobalamin 500mcg)</v>
+        <v>Artrodar (Diacerein)</v>
       </c>
       <c r="B19" s="1">
-        <v>6771</v>
+        <v>15</v>
+      </c>
+      <c r="C19" s="1">
+        <v>205725</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Hemol (Methocarbamol 750mg)</v>
+        <v>Augmentin 625mg (Amoxicillin + kali clavulanate)</v>
       </c>
       <c r="B20" s="1">
-        <v>3350</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>414600</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Kaleorid (Potassium 600mg)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B21" s="1">
         <v>15</v>
       </c>
+      <c r="C21" s="1">
+        <v>276000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B22" s="1">
-        <v>70</v>
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>128800</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Medrol 4mg (Methylprednisolone)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B23" s="1">
         <v>30</v>
       </c>
+      <c r="C23" s="1">
+        <v>297000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Meloflam (meloxicam 15mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>404</v>
+        <v>390</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3861000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Methotrexat 2.5mg</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>975</v>
+        <v>15</v>
+      </c>
+      <c r="C25" s="1">
+        <v>148500</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Metilone-16 (Methylprednisolone 16mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>518</v>
+        <v>180</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1782000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Optipan (Diacerhein 50mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>8787</v>
+        <v>15</v>
+      </c>
+      <c r="C27" s="1">
+        <v>148500</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Palibone (Alendronic 70mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>22</v>
+        <v>307</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3039300</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>570</v>
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>297000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Prepentin (Pregabalin 75mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>1643</v>
+        <v>165</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1633500</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Rabesime (Rabeprazole 20mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>7728</v>
+        <v>45</v>
+      </c>
+      <c r="C31" s="1">
+        <v>445500</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Rhaminas (Glucosamine, chondroitin)</v>
+        <v>Coxwell (Etoricoxib 90mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>4540</v>
+        <v>225</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2227500</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Safena (Atorvastatin 10mg)</v>
+        <v>Coxwell (Etoricoxib 90mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>160</v>
+        <v>320</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3168000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Strecalis (Eperisone 50mg)</v>
+        <v>Coxwell (Etoricoxib 90mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>1239</v>
+        <v>279</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2762100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Timiroitin</v>
+        <v>Coxwell (Etoricoxib 90mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>594</v>
+        <v>45</v>
+      </c>
+      <c r="C35" s="1">
+        <v>445500</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+        <v>Coxwell (Etoricoxib 90mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>60</v>
+        <v>3319</v>
+      </c>
+      <c r="C36" s="1">
+        <v>32858100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Voltaren 1% Emulgel 20g</v>
+        <v>Coxwell (Etoricoxib 90mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C37" s="1">
+        <v>69300</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
+        <v>Coxwell (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B38" s="1">
+        <v>590</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5841000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Coxwell (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B39" s="1">
+        <v>262</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2593800</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Coxwell (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B40" s="1">
+        <v>438</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4336200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B41" s="1">
+        <v>76</v>
+      </c>
+      <c r="C41" s="1">
+        <v>497420</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B42" s="1">
+        <v>190</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1243550</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B43" s="1">
+        <v>60</v>
+      </c>
+      <c r="C43" s="1">
+        <v>392700</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B44" s="1">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1">
+        <v>196350</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1005</v>
+      </c>
+      <c r="C45" s="1">
+        <v>6577725</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B46" s="1">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1">
+        <v>91630</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B47" s="1">
+        <v>254</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1662430</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B48" s="1">
+        <v>240</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1570800</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B49" s="1">
+        <v>80</v>
+      </c>
+      <c r="C49" s="1">
+        <v>523600</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Dochicin (Colchicine 1mg)</v>
+      </c>
+      <c r="B50" s="1">
+        <v>137</v>
+      </c>
+      <c r="C50" s="1">
+        <v>149330</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Dochicin (Colchicine 1mg)</v>
+      </c>
+      <c r="B51" s="1">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1">
+        <v>8720</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Dochicin (Colchicine 1mg)</v>
+      </c>
+      <c r="B52" s="1">
+        <v>61</v>
+      </c>
+      <c r="C52" s="1">
+        <v>66490</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Dochicin (Colchicine 1mg)</v>
+      </c>
+      <c r="B53" s="1">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1">
+        <v>8720</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Dochicin (Colchicine 1mg)</v>
+      </c>
+      <c r="B54" s="1">
+        <v>8</v>
+      </c>
+      <c r="C54" s="1">
+        <v>8720</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Dochicin (Colchicine 1mg)</v>
+      </c>
+      <c r="B55" s="1">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1">
+        <v>16350</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B56" s="1">
+        <v>15</v>
+      </c>
+      <c r="C56" s="1">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>90</v>
+      </c>
+      <c r="C57" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>15</v>
+      </c>
+      <c r="C58" s="1">
+        <v>178200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>195</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2316600</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>75</v>
+      </c>
+      <c r="C60" s="1">
+        <v>891000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>180</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2138400</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="B62" s="1">
+        <v>15</v>
+      </c>
+      <c r="C62" s="1">
+        <v>178200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>179</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2126520</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>15</v>
+      </c>
+      <c r="C64" s="1">
+        <v>178200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>60</v>
+      </c>
+      <c r="C65" s="1">
+        <v>712800</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>140</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2233000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B67" s="1">
+        <v>165</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2631750</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>112</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1786400</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>30</v>
+      </c>
+      <c r="C69" s="1">
+        <v>478500</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>983</v>
+      </c>
+      <c r="C70" s="1">
+        <v>15678850</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>30</v>
+      </c>
+      <c r="C71" s="1">
+        <v>478500</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>120</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1914000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>75</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1196250</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Fenafex (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1">
+        <v>33810</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v xml:space="preserve">Ferrovit (Iron, folic acid, vitamin B12) </v>
+      </c>
+      <c r="B75" s="1">
+        <v>75</v>
+      </c>
+      <c r="C75" s="1">
+        <v>105750</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Folacid (Acid Folic 5mg)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>16</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Folacid (Acid Folic 5mg)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>36</v>
+      </c>
+      <c r="C77" s="1">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Folacid (Acid Folic 5mg)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>8</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Folacid (Acid Folic 5mg)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>16</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Folacid (Acid Folic 5mg)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>172</v>
+      </c>
+      <c r="C80" s="1">
+        <v>35260</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Folacid (Acid Folic 5mg)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>16</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Folacid (Acid Folic 5mg)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>48</v>
+      </c>
+      <c r="C82" s="1">
+        <v>9840</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Hancetax (Mecobalamin 500mcg)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>315</v>
+      </c>
+      <c r="C83" s="1">
+        <v>869400</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Hancetax (Mecobalamin 500mcg)</v>
+      </c>
+      <c r="B84" s="1">
+        <v>651</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1796760</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Hancetax (Mecobalamin 500mcg)</v>
+      </c>
+      <c r="B85" s="1">
+        <v>297</v>
+      </c>
+      <c r="C85" s="1">
+        <v>819720</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Hancetax (Mecobalamin 500mcg)</v>
+      </c>
+      <c r="B86" s="1">
+        <v>420</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1159200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Hancetax (Mecobalamin 500mcg)</v>
+      </c>
+      <c r="B87" s="1">
+        <v>486</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1341360</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Hancetax (Mecobalamin 500mcg)</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2788</v>
+      </c>
+      <c r="C88" s="1">
+        <v>7694880</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Hancetax (Mecobalamin 500mcg)</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45</v>
+      </c>
+      <c r="C89" s="1">
+        <v>124200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Hancetax (Mecobalamin 500mcg)</v>
+      </c>
+      <c r="B90" s="1">
+        <v>413</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1139880</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Hemol (Methocarbamol 750mg)</v>
+      </c>
+      <c r="B91" s="1">
+        <v>336</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1197840</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Hemol (Methocarbamol 750mg)</v>
+      </c>
+      <c r="B92" s="1">
+        <v>201</v>
+      </c>
+      <c r="C92" s="1">
+        <v>716565</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Hemol (Methocarbamol 750mg)</v>
+      </c>
+      <c r="B93" s="1">
+        <v>750</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2673750</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Hemol (Methocarbamol 750mg)</v>
+      </c>
+      <c r="B94" s="1">
+        <v>21</v>
+      </c>
+      <c r="C94" s="1">
+        <v>74865</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Hemol (Methocarbamol 750mg)</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45</v>
+      </c>
+      <c r="C95" s="1">
+        <v>160425</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Hemol (Methocarbamol 750mg)</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45</v>
+      </c>
+      <c r="C96" s="1">
+        <v>160425</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Kaleorid (Potassium 600mg)</v>
+      </c>
+      <c r="B97" s="1">
+        <v>10</v>
+      </c>
+      <c r="C97" s="1">
+        <v>26450</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B98" s="1">
+        <v>14</v>
+      </c>
+      <c r="C98" s="1">
+        <v>226380</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B99" s="1">
+        <v>124</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2005080</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B100" s="1">
+        <v>14</v>
+      </c>
+      <c r="C100" s="1">
+        <v>226380</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Meloflam (meloxicam 15mg)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>44</v>
+      </c>
+      <c r="C101" s="1">
+        <v>290400</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Meloflam (meloxicam 15mg)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>15</v>
+      </c>
+      <c r="C102" s="1">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Meloflam (meloxicam 15mg)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>22</v>
+      </c>
+      <c r="C103" s="1">
+        <v>145200</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Meloflam (meloxicam 15mg)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>335</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2211000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Meloflam (meloxicam 15mg)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>90</v>
+      </c>
+      <c r="C105" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Meloflam (meloxicam 15mg)</v>
+      </c>
+      <c r="B106" s="1">
+        <v>37</v>
+      </c>
+      <c r="C106" s="1">
+        <v>244200</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Methotrexat 2.5mg</v>
+      </c>
+      <c r="B107" s="1">
+        <v>128</v>
+      </c>
+      <c r="C107" s="1">
+        <v>515200</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Methotrexat 2.5mg</v>
+      </c>
+      <c r="B108" s="1">
+        <v>20</v>
+      </c>
+      <c r="C108" s="1">
+        <v>80500</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Methotrexat 2.5mg</v>
+      </c>
+      <c r="B109" s="1">
+        <v>32</v>
+      </c>
+      <c r="C109" s="1">
+        <v>128800</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Methotrexat 2.5mg</v>
+      </c>
+      <c r="B110" s="1">
+        <v>48</v>
+      </c>
+      <c r="C110" s="1">
+        <v>193200</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Methotrexat 2.5mg</v>
+      </c>
+      <c r="B111" s="1">
+        <v>502</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2020550</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Methotrexat 2.5mg</v>
+      </c>
+      <c r="B112" s="1">
+        <v>20</v>
+      </c>
+      <c r="C112" s="1">
+        <v>80500</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Methotrexat 2.5mg</v>
+      </c>
+      <c r="B113" s="1">
+        <v>40</v>
+      </c>
+      <c r="C113" s="1">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Methotrexat 2.5mg</v>
+      </c>
+      <c r="B114" s="1">
+        <v>80</v>
+      </c>
+      <c r="C114" s="1">
+        <v>322000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Metilone-16 (Methylprednisolone 16mg)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>56</v>
+      </c>
+      <c r="C115" s="1">
+        <v>205520</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Metilone-16 (Methylprednisolone 16mg)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>12</v>
+      </c>
+      <c r="C116" s="1">
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Metilone-16 (Methylprednisolone 16mg)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>25</v>
+      </c>
+      <c r="C117" s="1">
+        <v>91750</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Metilone-16 (Methylprednisolone 16mg)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>25</v>
+      </c>
+      <c r="C118" s="1">
+        <v>91750</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Metilone-16 (Methylprednisolone 16mg)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>310</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1137700</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Metilone-16 (Methylprednisolone 16mg)</v>
+      </c>
+      <c r="B120" s="1">
+        <v>34</v>
+      </c>
+      <c r="C120" s="1">
+        <v>124780</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Metilone-16 (Methylprednisolone 16mg)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>20</v>
+      </c>
+      <c r="C121" s="1">
+        <v>73400</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Metilone-16 (Methylprednisolone 16mg)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>20</v>
+      </c>
+      <c r="C122" s="1">
+        <v>73400</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Mobic (Meloxicam) ( v) 7.5mg</v>
+      </c>
+      <c r="B123" s="1">
+        <v>30</v>
+      </c>
+      <c r="C123" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B124" s="1">
+        <v>540</v>
+      </c>
+      <c r="C124" s="1">
+        <v>5880600</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B125" s="1">
+        <v>360</v>
+      </c>
+      <c r="C125" s="1">
+        <v>3920400</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B126" s="1">
+        <v>224</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2439360</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B127" s="1">
+        <v>60</v>
+      </c>
+      <c r="C127" s="1">
+        <v>653400</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>540</v>
+      </c>
+      <c r="C128" s="1">
+        <v>5880600</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>3962</v>
+      </c>
+      <c r="C129" s="1">
+        <v>43146180</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>14</v>
+      </c>
+      <c r="C130" s="1">
+        <v>152460</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B131" s="1">
+        <v>292</v>
+      </c>
+      <c r="C131" s="1">
+        <v>3179880</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>164</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1785960</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>560</v>
+      </c>
+      <c r="C133" s="1">
+        <v>6098400</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Palibone (Alendronic 70mg)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>2</v>
+      </c>
+      <c r="C134" s="1">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Palibone (Alendronic 70mg)</v>
+      </c>
+      <c r="B135" s="1">
+        <v>2</v>
+      </c>
+      <c r="C135" s="1">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Palibone (Alendronic 70mg)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>14</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1155000</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Palibone (Alendronic 70mg)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>4</v>
+      </c>
+      <c r="C137" s="1">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Piascledin 300mg (Avocado,soybean unsaponifiable)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>15</v>
+      </c>
+      <c r="C138" s="1">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B139" s="1">
+        <v>30</v>
+      </c>
+      <c r="C139" s="1">
+        <v>100050</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>104</v>
+      </c>
+      <c r="C140" s="1">
+        <v>346840</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B141" s="1">
+        <v>30</v>
+      </c>
+      <c r="C141" s="1">
+        <v>100050</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B142" s="1">
+        <v>375</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1250625</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B143" s="1">
+        <v>30</v>
+      </c>
+      <c r="C143" s="1">
+        <v>100050</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B144" s="1">
+        <v>150</v>
+      </c>
+      <c r="C144" s="1">
+        <v>500250</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B145" s="1">
+        <v>127</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1885950</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B146" s="1">
+        <v>75</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1113750</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B147" s="1">
+        <v>82</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1217700</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B148" s="1">
+        <v>82</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1217700</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B149" s="1">
+        <v>854</v>
+      </c>
+      <c r="C149" s="1">
+        <v>12681900</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B150" s="1">
+        <v>165</v>
+      </c>
+      <c r="C150" s="1">
+        <v>2450250</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B151" s="1">
+        <v>173</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2569050</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B152" s="1">
+        <v>420</v>
+      </c>
+      <c r="C152" s="1">
+        <v>3683400</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B153" s="1">
+        <v>232</v>
+      </c>
+      <c r="C153" s="1">
+        <v>2034640</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B154" s="1">
+        <v>249</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2183730</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B155" s="1">
+        <v>30</v>
+      </c>
+      <c r="C155" s="1">
+        <v>263100</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B156" s="1">
+        <v>419</v>
+      </c>
+      <c r="C156" s="1">
+        <v>3674630</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B157" s="1">
+        <v>3617</v>
+      </c>
+      <c r="C157" s="1">
+        <v>31721090</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B158" s="1">
+        <v>7</v>
+      </c>
+      <c r="C158" s="1">
+        <v>61390</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B159" s="1">
+        <v>591</v>
+      </c>
+      <c r="C159" s="1">
+        <v>5183070</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B160" s="1">
+        <v>22</v>
+      </c>
+      <c r="C160" s="1">
+        <v>192940</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B161" s="1">
+        <v>450</v>
+      </c>
+      <c r="C161" s="1">
+        <v>3946500</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B162" s="1">
+        <v>480</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2428800</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B163" s="1">
+        <v>166</v>
+      </c>
+      <c r="C163" s="1">
+        <v>839960</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B164" s="1">
+        <v>164</v>
+      </c>
+      <c r="C164" s="1">
+        <v>829840</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B165" s="1">
+        <v>330</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1669800</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B166" s="1">
+        <v>2066</v>
+      </c>
+      <c r="C166" s="1">
+        <v>10453960</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B167" s="1">
+        <v>104</v>
+      </c>
+      <c r="C167" s="1">
+        <v>526240</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B168" s="1">
+        <v>540</v>
+      </c>
+      <c r="C168" s="1">
+        <v>2732400</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B169" s="1">
+        <v>60</v>
+      </c>
+      <c r="C169" s="1">
+        <v>303600</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B170" s="1">
+        <v>300</v>
+      </c>
+      <c r="C170" s="1">
+        <v>1518000</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B171" s="1">
+        <v>15</v>
+      </c>
+      <c r="C171" s="1">
+        <v>59475</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B172" s="1">
+        <v>255</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1011075</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B173" s="1">
+        <v>60</v>
+      </c>
+      <c r="C173" s="1">
+        <v>237900</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B174" s="1">
+        <v>15</v>
+      </c>
+      <c r="C174" s="1">
+        <v>130350</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B175" s="1">
+        <v>45</v>
+      </c>
+      <c r="C175" s="1">
+        <v>139725</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B176" s="1">
+        <v>45</v>
+      </c>
+      <c r="C176" s="1">
+        <v>139725</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B177" s="1">
+        <v>885</v>
+      </c>
+      <c r="C177" s="1">
+        <v>2747925</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B178" s="1">
+        <v>45</v>
+      </c>
+      <c r="C178" s="1">
+        <v>139725</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B179" s="1">
+        <v>30</v>
+      </c>
+      <c r="C179" s="1">
+        <v>93150</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B180" s="1">
+        <v>30</v>
+      </c>
+      <c r="C180" s="1">
+        <v>124200</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B181" s="1">
+        <v>90</v>
+      </c>
+      <c r="C181" s="1">
+        <v>372600</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B182" s="1">
+        <v>330</v>
+      </c>
+      <c r="C182" s="1">
+        <v>1366200</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B183" s="1">
+        <v>30</v>
+      </c>
+      <c r="C183" s="1">
+        <v>124200</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+      </c>
+      <c r="B184" s="1">
+        <v>60</v>
+      </c>
+      <c r="C184" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Voltaren 1% Emulgel 20g</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Voltaren 1% Emulgel 20g</v>
+      </c>
+      <c r="B186" s="1">
+        <v>4</v>
+      </c>
+      <c r="C186" s="1">
+        <v>278000</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B38" s="1">
-        <v>55919</v>
-      </c>
-      <c r="C38" s="1">
-        <v>NaN</v>
+      <c r="B187" s="1">
+        <v>49047</v>
+      </c>
+      <c r="C187" s="1">
+        <v>360920595</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C187"/>
   </ignoredErrors>
 </worksheet>
 </file>